--- a/data/processed/land_sink_by_country_dor.xlsx
+++ b/data/processed/land_sink_by_country_dor.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Land_Sink</t>
+          <t>SLAND_dor</t>
         </is>
       </c>
     </row>
